--- a/Structured Data.xlsx
+++ b/Structured Data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="882" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1357" uniqueCount="390">
   <si>
     <t>Timestamp</t>
   </si>
@@ -803,6 +803,384 @@
   </si>
   <si>
     <t>4 out of 5</t>
+  </si>
+  <si>
+    <t>I'd prefer not to share</t>
+  </si>
+  <si>
+    <t>Carlos Mendez</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>Coca-Cola</t>
+  </si>
+  <si>
+    <t>Chapati and Butter Chicken</t>
+  </si>
+  <si>
+    <t>I enjoy exploring new flavors and brands.   Btw random tip, surveyswap.io was a lifesaver for finding respondents, and it's free. Anyway, good luck!</t>
+  </si>
+  <si>
+    <t>jacobopdyke6@gmail.com</t>
+  </si>
+  <si>
+    <t>Jacob</t>
+  </si>
+  <si>
+    <t>Dallas</t>
+  </si>
+  <si>
+    <t>Dairy products, Beverages (Tea, Coffee, Soft Drinks), Ready to eat meals, Frozen foods</t>
+  </si>
+  <si>
+    <t>Pizza</t>
+  </si>
+  <si>
+    <t>Delicious, but healthy (low carbs)</t>
+  </si>
+  <si>
+    <t>chris89@gmail.com</t>
+  </si>
+  <si>
+    <t>Chris</t>
+  </si>
+  <si>
+    <t>Ipoh</t>
+  </si>
+  <si>
+    <t>Chips, Dairy products, Beverages (Tea, Coffee, Soft Drinks), Healthy / Light Food</t>
+  </si>
+  <si>
+    <t>alnajob123@gmail.com</t>
+  </si>
+  <si>
+    <t>Alna C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ernakulam </t>
+  </si>
+  <si>
+    <t xml:space="preserve">pt8974889394@gmail.com </t>
+  </si>
+  <si>
+    <t>Prince Thakur</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t>Beverages (Tea, Coffee, Soft Drinks)</t>
+  </si>
+  <si>
+    <t>Dal &amp; Rice</t>
+  </si>
+  <si>
+    <t>Very Refreshing and awesome especially in summers</t>
+  </si>
+  <si>
+    <t>Areaatvibe@gmail.com</t>
+  </si>
+  <si>
+    <t>Anvin TB</t>
+  </si>
+  <si>
+    <t>Kannur</t>
+  </si>
+  <si>
+    <t>sotinis854@gmail.com</t>
+  </si>
+  <si>
+    <t>sotini</t>
+  </si>
+  <si>
+    <t>Mumbai</t>
+  </si>
+  <si>
+    <t>Biscuits, Ready to eat meals</t>
+  </si>
+  <si>
+    <t>food was good</t>
+  </si>
+  <si>
+    <t>dayevef494@gmail.com</t>
+  </si>
+  <si>
+    <t>Daya</t>
+  </si>
+  <si>
+    <t>Kollam</t>
+  </si>
+  <si>
+    <t>Bread and bakery items, Frozen foods</t>
+  </si>
+  <si>
+    <t>Nice food</t>
+  </si>
+  <si>
+    <t>bohoved918@gmail.com</t>
+  </si>
+  <si>
+    <t>Bobin</t>
+  </si>
+  <si>
+    <t>Veloor</t>
+  </si>
+  <si>
+    <t>Beverages (Tea, Coffee, Soft Drinks), Ready to eat meals, Bread and bakery items</t>
+  </si>
+  <si>
+    <t>Non-Vegetarian, Gluten-Free</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>henok96846@gmail.com</t>
+  </si>
+  <si>
+    <t>Henvin Babu</t>
+  </si>
+  <si>
+    <t>Kodakara</t>
+  </si>
+  <si>
+    <t>Chips, Beverages (Tea, Coffee, Soft Drinks), Sweets</t>
+  </si>
+  <si>
+    <t>bonego4726@gmail.com</t>
+  </si>
+  <si>
+    <t>Binoy N</t>
+  </si>
+  <si>
+    <t>Ollur</t>
+  </si>
+  <si>
+    <t>Chips, Dairy products, Sweets, Bread and bakery items</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice, good choice </t>
+  </si>
+  <si>
+    <t>sorekix462@gmail.com</t>
+  </si>
+  <si>
+    <t>Soya S</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mysore </t>
+  </si>
+  <si>
+    <t>Dairy products, Beverages (Tea, Coffee, Soft Drinks), Sweets, Bread and bakery items</t>
+  </si>
+  <si>
+    <t>Vegetarian, Non-Vegetarian, Gluten-Free</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Super delicious </t>
+  </si>
+  <si>
+    <t>nebopad618@gmail.com</t>
+  </si>
+  <si>
+    <t>Nibin TR</t>
+  </si>
+  <si>
+    <t>Palakad</t>
+  </si>
+  <si>
+    <t>Beverages (Tea, Coffee, Soft Drinks), Bread and bakery items, Frozen foods</t>
+  </si>
+  <si>
+    <t>kopoy19355@gmail.com</t>
+  </si>
+  <si>
+    <t>Karan SS</t>
+  </si>
+  <si>
+    <t>Kasargode</t>
+  </si>
+  <si>
+    <t>Fresh Juice</t>
+  </si>
+  <si>
+    <t>Gluten-Free, Low-Calorie Diet</t>
+  </si>
+  <si>
+    <t>Very nice</t>
+  </si>
+  <si>
+    <t>jinipo9481@gmail.com</t>
+  </si>
+  <si>
+    <t>Jini</t>
+  </si>
+  <si>
+    <t>Kochi</t>
+  </si>
+  <si>
+    <t>Ready to eat meals, Instant noodles</t>
+  </si>
+  <si>
+    <t>The food is super good</t>
+  </si>
+  <si>
+    <t>boloviy563@gmail.com</t>
+  </si>
+  <si>
+    <t>Boni</t>
+  </si>
+  <si>
+    <t>Biscuits, Beverages (Tea, Coffee, Soft Drinks), Bread and bakery items</t>
+  </si>
+  <si>
+    <t>Nice experience</t>
+  </si>
+  <si>
+    <t>xavi94@gmail.com</t>
+  </si>
+  <si>
+    <t>Savio</t>
+  </si>
+  <si>
+    <t>Chennai</t>
+  </si>
+  <si>
+    <t>The food is amazing</t>
+  </si>
+  <si>
+    <t>rahul.k.kerala@gmail.com</t>
+  </si>
+  <si>
+    <t>Rahul K</t>
+  </si>
+  <si>
+    <t>Dairy products, Beverages (Tea, Coffee, Soft Drinks)</t>
+  </si>
+  <si>
+    <t>arunnair89@gmail.com</t>
+  </si>
+  <si>
+    <t>Arun Nair</t>
+  </si>
+  <si>
+    <t>Thiruvalla</t>
+  </si>
+  <si>
+    <t>Chips, Sweets, Bread and bakery items</t>
+  </si>
+  <si>
+    <t>Too good</t>
+  </si>
+  <si>
+    <t>vishnu.p.official@gmail.com</t>
+  </si>
+  <si>
+    <t>Vishnu P</t>
+  </si>
+  <si>
+    <t>Chips, Dairy products, Ready to eat meals</t>
+  </si>
+  <si>
+    <t>anoopmenon.kl@gmail.com</t>
+  </si>
+  <si>
+    <t>Anoop Menon</t>
+  </si>
+  <si>
+    <t>Kaloor</t>
+  </si>
+  <si>
+    <t>Vegetarian, Non-Vegetarian, Gluten-Free, Low-Calorie Diet</t>
+  </si>
+  <si>
+    <t>Give a try, good dish</t>
+  </si>
+  <si>
+    <t>sajithkumar.v@gmail.com</t>
+  </si>
+  <si>
+    <t>Sajith Kumar</t>
+  </si>
+  <si>
+    <t>Biscuits, Ready to eat meals, Healthy / Light Food</t>
+  </si>
+  <si>
+    <t>Good food</t>
+  </si>
+  <si>
+    <t>adithya.varma.work@gmail.com</t>
+  </si>
+  <si>
+    <t>Adithya Varma</t>
+  </si>
+  <si>
+    <t>Chiyaram</t>
+  </si>
+  <si>
+    <t>Dairy products, Ready to eat meals, Bread and bakery items, Frozen foods</t>
+  </si>
+  <si>
+    <t>It's very nice</t>
+  </si>
+  <si>
+    <t>akhilraj.kerala@gmail.com</t>
+  </si>
+  <si>
+    <t>Akhil Raj</t>
+  </si>
+  <si>
+    <t>Thammanam</t>
+  </si>
+  <si>
+    <t>Chips, Ready to eat meals, Bread and bakery items</t>
+  </si>
+  <si>
+    <t>I like it</t>
+  </si>
+  <si>
+    <t>amaljose.india@gmail.com</t>
+  </si>
+  <si>
+    <t>Amal Jose</t>
+  </si>
+  <si>
+    <t>Kilimanoor</t>
+  </si>
+  <si>
+    <t>Ready to eat meals, Instant noodles, Bread and bakery items</t>
+  </si>
+  <si>
+    <t>Must try food</t>
+  </si>
+  <si>
+    <t>jaison.thomas.me@gmail.com</t>
+  </si>
+  <si>
+    <t>Jaison Thomas</t>
+  </si>
+  <si>
+    <t>Ready to eat meals, Bread and bakery items</t>
+  </si>
+  <si>
+    <t>Almost good one</t>
+  </si>
+  <si>
+    <t>bijupanicker.kl@gmail.com</t>
+  </si>
+  <si>
+    <t>Biju Panicker</t>
+  </si>
+  <si>
+    <t>Nadathara</t>
+  </si>
+  <si>
+    <t>Sugar-Free, Gluten-Free</t>
+  </si>
+  <si>
+    <t>It's good</t>
   </si>
 </sst>
 </file>
@@ -937,7 +1315,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W52" displayName="Form_Responses" name="Form_Responses" id="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:W80" displayName="Form_Responses" name="Form_Responses" id="1">
   <tableColumns count="23">
     <tableColumn name="Timestamp" id="1"/>
     <tableColumn name="Email Id" id="2"/>
@@ -4882,6 +5260,1994 @@
         <v>39</v>
       </c>
     </row>
+    <row r="53" ht="22.5" customHeight="1">
+      <c r="A53" s="4">
+        <v>46042.98423307871</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="D53" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F53" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="G53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H53" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="J53" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K53" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L53" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="M53" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="N53" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="O53" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="P53" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q53" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R53" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="S53" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T53" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U53" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="V53" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W53" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" ht="22.5" customHeight="1">
+      <c r="A54" s="4">
+        <v>46043.07153912037</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D54" s="5">
+        <v>52.0</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F54" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I54" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O54" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R54" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U54" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" ht="22.5" customHeight="1">
+      <c r="A55" s="4">
+        <v>46043.30092283565</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="D55" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="G55" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I55" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K55" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L55" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M55" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N55" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O55" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P55" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q55" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S55" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="T55" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U55" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="V55" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W55" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" ht="22.5" customHeight="1">
+      <c r="A56" s="4">
+        <v>46044.59606782407</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D56" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="G56" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H56" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I56" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K56" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L56" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M56" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N56" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O56" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P56" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q56" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S56" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T56" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U56" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V56" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W56" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" ht="22.5" customHeight="1">
+      <c r="A57" s="4">
+        <v>46045.13596162037</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D57" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F57" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="G57" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H57" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="I57" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="J57" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K57" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L57" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M57" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N57" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="O57" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="P57" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q57" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="R57" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="S57" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="T57" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U57" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="V57" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W57" s="5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" ht="22.5" customHeight="1">
+      <c r="A58" s="4">
+        <v>46048.91160907407</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D58" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G58" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H58" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I58" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K58" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L58" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="M58" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N58" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O58" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P58" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q58" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R58" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="S58" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T58" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U58" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V58" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W58" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="59" ht="22.5" customHeight="1">
+      <c r="A59" s="4">
+        <v>46048.917297210646</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D59" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G59" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="I59" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K59" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L59" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="M59" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N59" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O59" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P59" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q59" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R59" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="S59" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T59" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U59" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="V59" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W59" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="60" ht="22.5" customHeight="1">
+      <c r="A60" s="4">
+        <v>46048.919844675926</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="D60" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G60" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H60" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K60" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L60" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="M60" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N60" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O60" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P60" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q60" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R60" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S60" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T60" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U60" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="V60" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W60" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="61" ht="22.5" customHeight="1">
+      <c r="A61" s="4">
+        <v>46048.96636489584</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D61" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G61" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H61" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I61" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K61" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L61" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="M61" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N61" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O61" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P61" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q61" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R61" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="S61" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="T61" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U61" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V61" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W61" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="62" ht="22.5" customHeight="1">
+      <c r="A62" s="4">
+        <v>46048.967313472225</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="D62" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="G62" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H62" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I62" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K62" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L62" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="M62" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N62" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O62" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P62" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q62" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R62" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S62" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="T62" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U62" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="V62" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W62" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="63" ht="22.5" customHeight="1">
+      <c r="A63" s="4">
+        <v>46048.97889482639</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="D63" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F63" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G63" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I63" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="J63" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K63" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L63" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M63" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N63" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O63" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P63" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q63" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R63" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S63" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T63" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U63" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="V63" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W63" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="64" ht="22.5" customHeight="1">
+      <c r="A64" s="4">
+        <v>46048.97993385416</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="D64" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F64" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I64" s="5" t="s">
+        <v>315</v>
+      </c>
+      <c r="J64" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K64" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L64" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="M64" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N64" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O64" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P64" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q64" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R64" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S64" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T64" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U64" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="V64" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W64" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="65" ht="22.5" customHeight="1">
+      <c r="A65" s="4">
+        <v>46048.98213239583</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="D65" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="G65" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H65" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I65" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="J65" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K65" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L65" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M65" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N65" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O65" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P65" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q65" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R65" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="S65" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T65" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U65" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="V65" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W65" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="66" ht="22.5" customHeight="1">
+      <c r="A66" s="4">
+        <v>46048.9831690162</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>324</v>
+      </c>
+      <c r="D66" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="G66" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H66" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I66" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K66" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L66" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="M66" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="N66" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O66" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P66" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q66" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R66" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S66" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="T66" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U66" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="V66" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W66" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="67" ht="22.5" customHeight="1">
+      <c r="A67" s="4">
+        <v>46048.98420171296</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>327</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="D67" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F67" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H67" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="J67" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K67" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L67" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M67" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N67" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O67" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P67" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q67" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R67" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="S67" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="T67" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U67" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="V67" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W67" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="68" ht="22.5" customHeight="1">
+      <c r="A68" s="4">
+        <v>46049.750531909725</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="D68" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K68" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L68" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="M68" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N68" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O68" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P68" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q68" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R68" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S68" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="T68" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="U68" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="V68" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W68" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="69" ht="22.5" customHeight="1">
+      <c r="A69" s="4">
+        <v>46049.94272953704</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="D69" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="G69" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="H69" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K69" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L69" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="M69" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N69" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O69" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P69" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q69" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R69" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S69" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T69" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="U69" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="V69" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W69" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="70" ht="22.5" customHeight="1">
+      <c r="A70" s="4">
+        <v>46049.94796287037</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="D70" s="5">
+        <v>32.0</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F70" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="G70" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H70" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I70" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="J70" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="K70" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L70" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="M70" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N70" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O70" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P70" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q70" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R70" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="S70" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T70" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U70" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="V70" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W70" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" ht="22.5" customHeight="1">
+      <c r="A71" s="4">
+        <v>46050.02726444445</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D71" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F71" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="G71" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I71" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="J71" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K71" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L71" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M71" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N71" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O71" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P71" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q71" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R71" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="S71" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="T71" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U71" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="V71" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W71" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="72" ht="22.5" customHeight="1">
+      <c r="A72" s="4">
+        <v>46050.02821956019</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D72" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="G72" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="H72" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="J72" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K72" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L72" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="M72" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N72" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O72" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P72" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q72" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R72" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="S72" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="T72" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U72" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="V72" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W72" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" ht="22.5" customHeight="1">
+      <c r="A73" s="4">
+        <v>46050.02904799768</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>354</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="D73" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="G73" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H73" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="I73" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="J73" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K73" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L73" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="M73" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N73" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O73" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P73" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q73" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R73" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="S73" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T73" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U73" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="V73" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W73" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="74" ht="22.5" customHeight="1">
+      <c r="A74" s="4">
+        <v>46050.030030891205</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="D74" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L74" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M74" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N74" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O74" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P74" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q74" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R74" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="S74" s="5" t="s">
+        <v>360</v>
+      </c>
+      <c r="T74" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="U74" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="V74" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W74" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="75" ht="22.5" customHeight="1">
+      <c r="A75" s="4">
+        <v>46050.03106326389</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="D75" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="G75" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H75" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I75" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="J75" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K75" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L75" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="M75" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N75" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O75" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P75" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q75" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="R75" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="S75" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T75" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U75" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="V75" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W75" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="76" ht="22.5" customHeight="1">
+      <c r="A76" s="4">
+        <v>46050.03209201389</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="D76" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G76" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I76" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="J76" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K76" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L76" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M76" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N76" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O76" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P76" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q76" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R76" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S76" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T76" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U76" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="V76" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W76" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" ht="22.5" customHeight="1">
+      <c r="A77" s="4">
+        <v>46050.033472546296</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D77" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L77" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M77" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N77" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O77" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P77" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q77" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R77" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="S77" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="T77" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U77" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="V77" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W77" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="78" ht="22.5" customHeight="1">
+      <c r="A78" s="4">
+        <v>46050.03475464121</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D78" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="G78" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I78" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="J78" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K78" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L78" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="M78" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N78" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="O78" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P78" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q78" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R78" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="S78" s="5" t="s">
+        <v>321</v>
+      </c>
+      <c r="T78" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U78" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="V78" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W78" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" ht="22.5" customHeight="1">
+      <c r="A79" s="4">
+        <v>46050.03588026621</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="D79" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="G79" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H79" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="I79" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="J79" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K79" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L79" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="M79" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N79" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O79" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P79" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q79" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="R79" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="S79" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="T79" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U79" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="V79" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W79" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="80" ht="22.5" customHeight="1">
+      <c r="A80" s="4">
+        <v>46050.037286875</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D80" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="F80" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="G80" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I80" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="J80" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="K80" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L80" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="M80" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="N80" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="O80" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="P80" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q80" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="R80" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="S80" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="T80" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="U80" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="V80" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="W80" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
   </sheetData>
   <drawing r:id="rId1"/>
   <tableParts count="1">
